--- a/public/data/db-source/folder.xlsx
+++ b/public/data/db-source/folder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73FFD3-176D-8C46-BCEC-076ACC38303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61895C4B-315A-AF4A-B96F-EDB6C50C64CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="500" windowWidth="26720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="319">
   <si>
     <t>id</t>
   </si>
@@ -49,18 +49,12 @@
     <t>localisation</t>
   </si>
   <si>
-    <t>genève</t>
-  </si>
-  <si>
     <t>survey_type</t>
   </si>
   <si>
     <t>delivery_format</t>
   </si>
   <si>
-    <t>csv</t>
-  </si>
-  <si>
     <t>updating_each</t>
   </si>
   <si>
@@ -301,72 +295,24 @@
     <t>BEVNAT : Statistique du mouvement naturel de la population</t>
   </si>
   <si>
-    <t>https://www.bfs.admin.ch/bfs/fr/home/statistiques/population/enquetes/statpop.assetdetail.21644016.html</t>
-  </si>
-  <si>
-    <t>2024/08/29</t>
-  </si>
-  <si>
-    <t>annuelle</t>
-  </si>
-  <si>
-    <t>suisse</t>
-  </si>
-  <si>
-    <t>registre</t>
-  </si>
-  <si>
-    <t>ofs-demo</t>
-  </si>
-  <si>
     <t>ofs</t>
   </si>
   <si>
-    <t>encolonné</t>
-  </si>
-  <si>
-    <t>/bfs/fr/home/statistiques/population/enquetes/statpop.assetdetail.7766422.html</t>
-  </si>
-  <si>
-    <t>/bfs/fr/home/statistiques/population/enquetes/bevnat.assetdetail.2164045.html</t>
-  </si>
-  <si>
-    <t>/bfs/fr/home/statistiques/population/enquetes/bevnat.html</t>
-  </si>
-  <si>
-    <t>ofs-tourisme</t>
-  </si>
-  <si>
-    <t>ofs-div-pop</t>
-  </si>
-  <si>
     <t>ofs-div-sante</t>
   </si>
   <si>
-    <t>ofs-div-inter</t>
-  </si>
-  <si>
     <t>ofs-div-terr</t>
   </si>
   <si>
     <t>ofs-travail</t>
   </si>
   <si>
-    <t>ofs-batiment</t>
-  </si>
-  <si>
     <t>ofs-salaire</t>
   </si>
   <si>
-    <t>ofs-conjonct</t>
-  </si>
-  <si>
     <t>ofs-crim</t>
   </si>
   <si>
-    <t>ofs-sys-form</t>
-  </si>
-  <si>
     <t>ofs-pop</t>
   </si>
   <si>
@@ -376,38 +322,668 @@
     <t>doc_ids</t>
   </si>
   <si>
-    <t>personal_data, sensible_data, population</t>
-  </si>
-  <si>
-    <t>personal_data, population, societe</t>
-  </si>
-  <si>
-    <t>mensuelle</t>
-  </si>
-  <si>
-    <t>2025/01/03</t>
-  </si>
-  <si>
     <t>no_more_update</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>tourisme-exemple</t>
-  </si>
-  <si>
     <t>statpop-info</t>
   </si>
   <si>
-    <t>bevnat-info, bevnat-variable</t>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1994/08/06</t>
+  </si>
+  <si>
+    <t>1977/02/05</t>
+  </si>
+  <si>
+    <t>2025/09/08</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2022/06/04</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2020/10</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2023/09</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1972/07/05</t>
+  </si>
+  <si>
+    <t>1980/03</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1988/04</t>
+  </si>
+  <si>
+    <t>1978/08/10</t>
+  </si>
+  <si>
+    <t>2010/11/09</t>
+  </si>
+  <si>
+    <t>2006/03/04</t>
+  </si>
+  <si>
+    <t>2017/12/23</t>
+  </si>
+  <si>
+    <t>2010/10</t>
+  </si>
+  <si>
+    <t>2011/09/03</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1980/08/05</t>
+  </si>
+  <si>
+    <t>1999/02</t>
+  </si>
+  <si>
+    <t>2003/06</t>
+  </si>
+  <si>
+    <t>2004/09</t>
+  </si>
+  <si>
+    <t>1994/09</t>
+  </si>
+  <si>
+    <t>1989/11</t>
+  </si>
+  <si>
+    <t>1992/06</t>
+  </si>
+  <si>
+    <t>2007/06/13</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1977/01/19</t>
+  </si>
+  <si>
+    <t>2021/12</t>
+  </si>
+  <si>
+    <t>2012/07</t>
+  </si>
+  <si>
+    <t>2013/04</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2018/06/01</t>
+  </si>
+  <si>
+    <t>2018/07/11</t>
+  </si>
+  <si>
+    <t>2018/08/20</t>
+  </si>
+  <si>
+    <t>2020/03/25</t>
+  </si>
+  <si>
+    <t>2025/10/26</t>
+  </si>
+  <si>
+    <t>2020/11/11</t>
+  </si>
+  <si>
+    <t>2012/11/15</t>
+  </si>
+  <si>
+    <t>2018/09/02</t>
+  </si>
+  <si>
+    <t>2024/12/22</t>
+  </si>
+  <si>
+    <t>2017/04/06</t>
+  </si>
+  <si>
+    <t>2023/08/13</t>
+  </si>
+  <si>
+    <t>2017/12/12</t>
+  </si>
+  <si>
+    <t>2011/03/02</t>
+  </si>
+  <si>
+    <t>2025/01/22</t>
+  </si>
+  <si>
+    <t>2023/12/19</t>
+  </si>
+  <si>
+    <t>2011/07/28</t>
+  </si>
+  <si>
+    <t>2021/07/20</t>
+  </si>
+  <si>
+    <t>2012/08/22</t>
+  </si>
+  <si>
+    <t>2022/10/01</t>
+  </si>
+  <si>
+    <t>2020/05/09</t>
+  </si>
+  <si>
+    <t>2021/07/10</t>
+  </si>
+  <si>
+    <t>2018/08/09</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>Extraction automatique</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>hebdomadaire</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>mensuel</t>
+  </si>
+  <si>
+    <t>Neuchâtel</t>
+  </si>
+  <si>
+    <t>Enquête ponctuelle</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Bâle</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>annuel</t>
+  </si>
+  <si>
+    <t>Enquête continue</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>quotidien</t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>trimestriel</t>
+  </si>
+  <si>
+    <t>XLSX</t>
+  </si>
+  <si>
+    <t>Fribourg</t>
+  </si>
+  <si>
+    <t>Statistique administrative</t>
+  </si>
+  <si>
+    <t>Lugano</t>
+  </si>
+  <si>
+    <t>Recensement</t>
+  </si>
+  <si>
+    <t>Berne</t>
+  </si>
+  <si>
+    <t>Parquet</t>
+  </si>
+  <si>
+    <t>Delémont</t>
+  </si>
+  <si>
+    <t>Sion</t>
+  </si>
+  <si>
+    <t>Enquête annuelle</t>
+  </si>
+  <si>
+    <t>https://opendata.swiss/metadata/prodima.json</t>
+  </si>
+  <si>
+    <t>https://opendata.swiss/data/prodima.parquet</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/prodima/tree/main/prodima</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/00-base.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/00-base.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/stats-scripts/tree/main/00-base</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/metadata/01-pop.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/data/01-pop.parquet</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/stats-scripts/tree/main/01-pop</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/metadata/02-espace.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/02-espace.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/catalog/tree/main/02-espace</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/metadata/03-travail.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/03-travail.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/etl/tree/main/03-travail</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/metadata/04-economie.json</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/data/04-economie.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/etl/tree/main/04-economie</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/05-prix.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/data/05-prix.json</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/datasets/tree/main/05-prix</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/06-industrie.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/06-industrie.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/etl/tree/main/06-industrie</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/07-agriculture.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/07-agriculture.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/catalog/tree/main/07-agriculture</t>
+  </si>
+  <si>
+    <t>https://opendata.swiss/metadata/08-energie.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/08-energie.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/etl/tree/main/08-energie</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/09-construction.json</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/data/09-construction.json</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/stats-scripts/tree/main/09-construction</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/10-tourisme.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/10-tourisme.parquet</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/catalog/tree/main/10-tourisme</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/11-mobilite.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/data/11-mobilite.json</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/etl/tree/main/11-mobilite</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/metadata/12-monnaie.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/12-monnaie.parquet</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/prodima/tree/main/12-monnaie</t>
+  </si>
+  <si>
+    <t>https://opendata.swiss/metadata/13-protec-social.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/13-protec-social.parquet</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/prodima/tree/main/13-protec-social</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/14-sante.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/14-sante.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/catalog/tree/main/14-sante</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/metadata/15-education.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/data/15-education.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/datasets/tree/main/15-education</t>
+  </si>
+  <si>
+    <t>https://opendata.swiss/metadata/16-culture.json</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/data/16-culture.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/stats-scripts/tree/main/16-culture</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/metadata/17-politique.json</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/data/17-politique.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/catalog/tree/main/17-politique</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/18-administration.json</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/data/18-administration.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/prodima/tree/main/18-administration</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/metadata/19-criminalite.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/data/19-criminalite.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/stats-scripts/tree/main/19-criminalite</t>
+  </si>
+  <si>
+    <t>https://statistique.admin.ch/metadata/20-situation-eco.json</t>
+  </si>
+  <si>
+    <t>https://opendata.swiss/data/20-situation-eco.json</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/prodima/tree/main/20-situation-eco</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/metadata/21-dev-durable.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/21-dev-durable.json</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/etl/tree/main/21-dev-durable</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/metadata/statpop.json</t>
+  </si>
+  <si>
+    <t>https://data.admin.ch/data/statpop.parquet</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/etl/tree/main/statpop</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ofs-data/metadata/bevnat.json</t>
+  </si>
+  <si>
+    <t>https://opendata.swiss/data/bevnat.json</t>
+  </si>
+  <si>
+    <t>https://github.com/ofs-data/prodima/tree/main/bevnat</t>
+  </si>
+  <si>
+    <t>avasad</t>
+  </si>
+  <si>
+    <t>dgaic</t>
+  </si>
+  <si>
+    <t>dfi</t>
+  </si>
+  <si>
+    <t>ofs-mobi</t>
+  </si>
+  <si>
+    <t>dfa</t>
+  </si>
+  <si>
+    <t>dfjp</t>
+  </si>
+  <si>
+    <t>dgcs</t>
+  </si>
+  <si>
+    <t>vd-djes</t>
+  </si>
+  <si>
+    <t>unil</t>
+  </si>
+  <si>
+    <t>dcg</t>
+  </si>
+  <si>
+    <t>ne-etat</t>
+  </si>
+  <si>
+    <t>vd-ojv</t>
+  </si>
+  <si>
+    <t>poste</t>
+  </si>
+  <si>
+    <t>camac</t>
+  </si>
+  <si>
+    <t>ge-df</t>
+  </si>
+  <si>
+    <t>dgnsi</t>
+  </si>
+  <si>
+    <t>vd-deiep</t>
+  </si>
+  <si>
+    <t>ofs-service-sante</t>
+  </si>
+  <si>
+    <t>vd-dgf</t>
+  </si>
+  <si>
+    <t>ofs-div-eco</t>
+  </si>
+  <si>
+    <t>suisse-af</t>
+  </si>
+  <si>
+    <t>dsas</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>vd-dge-geod</t>
+  </si>
+  <si>
+    <t>dcirh</t>
+  </si>
+  <si>
+    <t>ofs-struct-eco</t>
+  </si>
+  <si>
+    <t>approvisionnement, localisation, sante, limites_pol_admin, cadastre_foncier</t>
+  </si>
+  <si>
+    <t>personal_data, sols, faune, communication, edifices, couverture_sol</t>
+  </si>
+  <si>
+    <t>societe, flore, communication, cartes_reference</t>
+  </si>
+  <si>
+    <t>theme_iso, couverture_sol, images_aeriennes_1, approvisionnement, culture</t>
+  </si>
+  <si>
+    <t>personal_data, theme_iso, securite, ouvrages</t>
+  </si>
+  <si>
+    <t>edifices, pseudonymous_data, sols, limites_pol_admin, foret, flore</t>
+  </si>
+  <si>
+    <t>sante, cartes_reference, elimination</t>
+  </si>
+  <si>
+    <t>images_aeriennes_1, altimetrie, climatologie, geologie, societe, cartes_reference</t>
+  </si>
+  <si>
+    <t>pseudonymous_data</t>
+  </si>
+  <si>
+    <t>sols, anonymous_data, limites_pol_admin</t>
+  </si>
+  <si>
+    <t>personal_data</t>
+  </si>
+  <si>
+    <t>elimination, sols</t>
+  </si>
+  <si>
+    <t>activites_economiques, couverture_sol, images_aeriennes_1</t>
+  </si>
+  <si>
+    <t>couverture_sol, atmosphere</t>
+  </si>
+  <si>
+    <t>flore, systemes_reference, edifices, pseudonymous_data</t>
+  </si>
+  <si>
+    <t>dangers_naturels, culture, agriculture, edifices, anonymous_data</t>
+  </si>
+  <si>
+    <t>infrastructures, protection_env_nature, hydrographie, edifices, pseudonymous_data</t>
+  </si>
+  <si>
+    <t>localisation, cartes_reference, climatologie, pseudonymous_data, infrastructures</t>
+  </si>
+  <si>
+    <t>foret</t>
+  </si>
+  <si>
+    <t>pseudonymous_data, images_aeriennes_1, personal_data, couverture_sol</t>
+  </si>
+  <si>
+    <t>flore, edifices, protection_env_nature</t>
+  </si>
+  <si>
+    <t>pdf-wiki</t>
+  </si>
+  <si>
+    <t>pdf_online, bevnat-variable</t>
+  </si>
+  <si>
+    <t>pdf-wiki, tourisme-exemple</t>
+  </si>
+  <si>
+    <t>bevnat-variable</t>
+  </si>
+  <si>
+    <t>statpop-info, tourisme-exemple</t>
+  </si>
+  <si>
+    <t>pop-com-1, pdf_online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,12 +996,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,10 +1018,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +1363,10 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -851,623 +1420,1346 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
       <c r="R1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
       <c r="N2" s="1"/>
+      <c r="O2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" t="s">
+        <v>142</v>
+      </c>
       <c r="N4" s="1"/>
+      <c r="O4" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" t="s">
+        <v>143</v>
+      </c>
       <c r="N5" s="1"/>
+      <c r="O5" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>202</v>
+      </c>
+      <c r="R5" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" t="s">
+        <v>145</v>
+      </c>
       <c r="N7" s="1"/>
+      <c r="O7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>208</v>
+      </c>
+      <c r="R7" t="s">
+        <v>295</v>
+      </c>
+      <c r="S7" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
         <v>111</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="I8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" t="s">
+        <v>146</v>
+      </c>
       <c r="N8" s="1"/>
+      <c r="O8" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>211</v>
+      </c>
+      <c r="R8" t="s">
+        <v>296</v>
+      </c>
+      <c r="S8" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
         <v>112</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="1"/>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" t="s">
+        <v>147</v>
+      </c>
       <c r="N9" s="1"/>
+      <c r="O9" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" t="s">
+        <v>165</v>
+      </c>
       <c r="N10" s="1"/>
+      <c r="O10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>217</v>
+      </c>
+      <c r="R10" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>271</v>
+      </c>
+      <c r="D11" t="s">
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
       <c r="N11" s="1"/>
+      <c r="O11" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" t="s">
+        <v>149</v>
+      </c>
       <c r="N12" s="1"/>
+      <c r="O12" t="s">
+        <v>221</v>
+      </c>
+      <c r="P12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>223</v>
+      </c>
+      <c r="R12" t="s">
+        <v>299</v>
+      </c>
+      <c r="S12" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="S13" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>224</v>
+      </c>
+      <c r="P13" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>226</v>
+      </c>
+      <c r="R13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>279</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s">
+        <v>151</v>
+      </c>
       <c r="N14" s="1"/>
+      <c r="O14" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>229</v>
+      </c>
+      <c r="R14" t="s">
+        <v>301</v>
+      </c>
+      <c r="S14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15">
-        <v>2020</v>
-      </c>
-      <c r="H15">
-        <v>2024</v>
-      </c>
-      <c r="M15" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s">
+        <v>152</v>
+      </c>
       <c r="N15" s="1"/>
+      <c r="O15" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R15" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>281</v>
+      </c>
+      <c r="D16" t="s">
+        <v>282</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="s">
+        <v>153</v>
+      </c>
       <c r="N16" s="1"/>
+      <c r="O16" t="s">
+        <v>233</v>
+      </c>
+      <c r="P16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>235</v>
+      </c>
+      <c r="R16" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
       <c r="N17" s="1"/>
+      <c r="O17" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>238</v>
+      </c>
+      <c r="R17" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="s">
+        <v>154</v>
+      </c>
       <c r="N18" s="1"/>
+      <c r="O18" t="s">
+        <v>239</v>
+      </c>
+      <c r="P18" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>241</v>
+      </c>
+      <c r="R18" t="s">
+        <v>305</v>
+      </c>
+      <c r="S18" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>285</v>
+      </c>
+      <c r="D19" t="s">
+        <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" t="s">
+        <v>242</v>
+      </c>
+      <c r="P19" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>244</v>
+      </c>
+      <c r="R19" t="s">
+        <v>306</v>
+      </c>
+      <c r="S19" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
       <c r="N20" s="1"/>
+      <c r="O20" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>247</v>
+      </c>
+      <c r="R20" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="s">
+        <v>156</v>
+      </c>
       <c r="N21" s="1"/>
+      <c r="O21" t="s">
+        <v>248</v>
+      </c>
+      <c r="P21" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>250</v>
+      </c>
+      <c r="R21" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="s">
+        <v>157</v>
+      </c>
       <c r="N22" s="1"/>
+      <c r="O22" t="s">
+        <v>251</v>
+      </c>
+      <c r="P22" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>253</v>
+      </c>
+      <c r="R22" t="s">
+        <v>309</v>
+      </c>
+      <c r="S22" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="M23" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="s">
+        <v>158</v>
+      </c>
       <c r="N23" s="1"/>
+      <c r="O23" t="s">
+        <v>254</v>
+      </c>
+      <c r="P23" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" t="s">
+        <v>159</v>
+      </c>
       <c r="N24" s="1"/>
+      <c r="O24" t="s">
+        <v>257</v>
+      </c>
+      <c r="P24" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>259</v>
+      </c>
+      <c r="R24" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25">
-        <v>2010</v>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>94</v>
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" t="s">
+        <v>160</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>260</v>
+      </c>
+      <c r="P25" t="s">
+        <v>261</v>
       </c>
       <c r="Q25" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="R25" t="s">
-        <v>119</v>
-      </c>
-      <c r="S25" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26">
-        <v>2011</v>
+      <c r="G26" t="s">
+        <v>139</v>
       </c>
       <c r="I26" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>121</v>
+        <v>165</v>
+      </c>
+      <c r="M26" t="s">
+        <v>161</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="O26" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="P26" t="s">
-        <v>103</v>
+        <v>264</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>265</v>
       </c>
       <c r="R26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S26" t="s">
-        <v>126</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
